--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="18350" windowHeight="6920"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="3WK7i0BFHTJAJGSEaKgpI3+q6iaXVEVo6pBmZMz0Stk="/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>URL_ID</t>
   </si>
@@ -24,883 +35,442 @@
     <t>URL</t>
   </si>
   <si>
-    <t>bctech2011</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/ml-and-ai-based-insurance-premium-model-to-predict-premium-to-be-charged-by-the-insurance-company/</t>
   </si>
   <si>
-    <t>bctech2012</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/streamlined-integration-interactive-brokers-api-with-python-for-desktop-trading-application/</t>
   </si>
   <si>
-    <t>bctech2013</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/efficient-data-integration-and-user-friendly-interface-development-navigating-challenges-in-web-application-deployment/</t>
   </si>
   <si>
-    <t>bctech2014</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/effective-management-of-social-media-data-extraction-strategies-for-authentication-security-and-reliability/</t>
   </si>
   <si>
-    <t>bctech2015</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/streamlined-trading-operations-interface-for-metatrader-4-empowering-efficient-management-and-monitoring/</t>
   </si>
   <si>
-    <t>bctech2016</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/efficient-aws-infrastructure-setup-and-management-addressing-security-scalability-and-compliance/</t>
   </si>
   <si>
-    <t>bctech2017</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/streamlined-equity-waterfall-calculation-and-deal-management-system/</t>
   </si>
   <si>
-    <t>bctech2018</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/automated-orthopedic-case-report-generation-harnessing-web-scraping-and-ai-integration/</t>
   </si>
   <si>
-    <t>bctech2019</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/streamlining-time-calculation-in-warehouse-management-leveraging-shiphero-api-and-google-bigquery-integration/</t>
   </si>
   <si>
-    <t>bctech2020</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/efficient-database-design-and-management-streamlining-access-and-integration-for-partner-entity-management/</t>
   </si>
   <si>
-    <t>bctech2021</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/automated-campaign-management-system-a-comprehensive-solution-with-linkedin-and-email-integration/</t>
   </si>
   <si>
-    <t>bctech2022</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/ai-driven-data-analysis-ai-tool-using-langchain-for-a-leading-real-estate-and-financing-firm-worldwide/</t>
   </si>
   <si>
-    <t>bctech2023</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/grafana-dashboard-to-visualize-and-analyze-sensors-data/</t>
   </si>
   <si>
-    <t>bctech2024</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/mvp-for-a-software-that-analyses-content-from-audio-pharma-based/</t>
   </si>
   <si>
-    <t>bctech2025</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/data-engineering-and-management-tool-airbyte-with-custom-data-connectors-to-manage-crm-database/</t>
   </si>
   <si>
-    <t>bctech2026</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/text-summarizing-tool-to-scrape-and-summarize-pubmed-medical-papers/</t>
   </si>
   <si>
-    <t>bctech2027</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/7up7down-10updown-snakes-and-ladder-games-built-using-oops/</t>
   </si>
   <si>
-    <t>bctech2028</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/data-studio-dashboard-with-a-data-pipeline-tool-synced-with-podio-using-custom-webhooks-and-google-cloud-function/</t>
   </si>
   <si>
-    <t>bctech2029</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/end-to-end-tool-to-optimize-routing-and-planning-of-field-engineers-using-googles-cvrp-tw-algorithm/</t>
   </si>
   <si>
-    <t>bctech2030</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/end-to-end-tool-to-predict-biofuel-prices-using-ieso-data/</t>
   </si>
   <si>
-    <t>bctech2031</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/etl-discovery-tool-using-llma-langchain-openai/</t>
   </si>
   <si>
-    <t>bctech2032</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/gpt-ocr-api/</t>
   </si>
   <si>
-    <t>bctech2033</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/dockerize-the-aws-lambda-for-serverless-architecture/</t>
   </si>
   <si>
-    <t>bctech2034</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/design-and-develop-a-product-recommendation-engine-based-on-the-features-of-products/</t>
   </si>
   <si>
-    <t>bctech2035</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/database-discovery-tool-using-openai/</t>
   </si>
   <si>
-    <t>bctech2036</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/automate-the-data-management-process/</t>
   </si>
   <si>
-    <t>bctech2037</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/realtime-kibana-dashboard-for-a-financial-tech-firm/</t>
   </si>
   <si>
-    <t>bctech2038</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/data-management-etl-and-data-automation/</t>
   </si>
   <si>
-    <t>bctech2039</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/data-management-egeas/</t>
   </si>
   <si>
-    <t>bctech2040</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/design-and-develop-powershell-script/</t>
   </si>
   <si>
-    <t>bctech2041</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/design-and-develop-jenkins-shared-library/</t>
   </si>
   <si>
-    <t>bctech2042</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/design-and-develop-retool-app-for-wholecell-io-and-asana-data-using-their-apis/</t>
   </si>
   <si>
-    <t>bctech2043</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/design-and-develop-a-retool-app-that-will-show-stock-and-crypto-related-information-using-iex-api/</t>
   </si>
   <si>
-    <t>bctech2044</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/crm-monday-com-make-com-to-data-warehouse-to-klipfolio-dashboard/</t>
   </si>
   <si>
-    <t>bctech2045</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/ner-task-using-bert-with-data-in-xml-format/</t>
   </si>
   <si>
-    <t>bctech2046</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/qualtrics-api-integration-using-python/</t>
   </si>
   <si>
-    <t>bctech2047</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/design-and-develop-mlops-framework-for-data-centric-ai/</t>
   </si>
   <si>
-    <t>bctech2048</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/nlp-based-approach-for-data-transformation/</t>
   </si>
   <si>
-    <t>bctech2049</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/an-etl-tool-to-pull-data-from-shiphero-to-google-bigquery-data-warehouse/</t>
   </si>
   <si>
-    <t>bctech2050</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/plaid-financial-analytics-a-data-driven-dashboard-to-generate-insights/</t>
   </si>
   <si>
-    <t>bctech2051</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/recommendation-engine-for-insurance-sector-to-expand-business-in-the-rural-area/</t>
   </si>
   <si>
-    <t>bctech2052</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/data-from-crm-via-zapier-to-google-sheets-dynamic-to-powerbi/</t>
   </si>
   <si>
-    <t>bctech2053</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/data-warehouse-to-google-data-studio-looker-dashboard/</t>
   </si>
   <si>
-    <t>bctech2054</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/crm-monday-com-via-zapier-to-power-bi-dashboard/</t>
   </si>
   <si>
-    <t>bctech2055</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/monday-com-to-kpi-dashboard-to-manage-view-and-generate-insights-from-the-crm-data/</t>
   </si>
   <si>
-    <t>bctech2056</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/data-management-for-a-political-saas-application/</t>
   </si>
   <si>
-    <t>bctech2057</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/google-lsa-ads-google-local-service-ads-etl-tools-and-dashboards/</t>
   </si>
   <si>
-    <t>bctech2058</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/ad-networks-marketing-campaign-data-dashboard-in-looker-google-data-studio/</t>
   </si>
   <si>
-    <t>bctech2059</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/analytical-solution-for-a-tech-firm/</t>
   </si>
   <si>
-    <t>bctech2060</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/ai-solution-for-a-technology-information-and-internet-firm/</t>
   </si>
   <si>
-    <t>bctech2061</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/ai-and-nlp-based-solutions-to-automate-data-discovery-for-venture-capital-and-private-equity-principals/</t>
   </si>
   <si>
-    <t>bctech2062</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/an-etl-solution-for-an-internet-publishing-firm/</t>
   </si>
   <si>
-    <t>bctech2063</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/ai-based-algorithmic-trading-bot-for-forex/</t>
   </si>
   <si>
-    <t>bctech2064</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/equity-waterfalls-model-based-saas-application-for-real-estate-sector/</t>
   </si>
   <si>
-    <t>bctech2065</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/ai-solutions-for-foreign-exchange-an-automated-algo-trading-tool/</t>
   </si>
   <si>
-    <t>bctech2066</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/ai-agent-development-and-deployment-in-jina-ai/</t>
   </si>
   <si>
-    <t>bctech2067</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/golden-record-a-knowledge-graph-database-approach-to-unfold-discovery-using-neo4j/</t>
   </si>
   <si>
-    <t>bctech2068</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/advanced-ai-for-trading-automation/</t>
   </si>
   <si>
-    <t>bctech2069</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/create-a-knowledge-graph-to-provide-real-time-analytics-recommendations-and-a-single-source-of-truth/</t>
   </si>
   <si>
-    <t>bctech2070</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/advanced-ai-for-thermal-person-detection/</t>
   </si>
   <si>
-    <t>bctech2071</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/advanced-ai-for-road-cam-threat-detection/</t>
   </si>
   <si>
-    <t>bctech2072</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/advanced-ai-for-pedestrian-crossing-safety/</t>
   </si>
   <si>
-    <t>bctech2073</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/handgun-detection-using-yolo/</t>
   </si>
   <si>
-    <t>bctech2074</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/using-graph-technology-to-create-single-customer-view/</t>
   </si>
   <si>
-    <t>bctech2075</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/car-detection-in-satellite-images/</t>
   </si>
   <si>
-    <t>bctech2076</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/building-a-physics-informed-neural-network-for-circuit-evaluation/</t>
   </si>
   <si>
-    <t>bctech2077</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/connecting-mongodb-database-to-power-bi-dashboard-dashboard-automation/</t>
   </si>
   <si>
-    <t>bctech2078</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/data-transformation/</t>
   </si>
   <si>
-    <t>bctech2079</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/e-commerce-store-analysis-purchase-behavior-ad-spend-conversion-traffic-etc/</t>
   </si>
   <si>
-    <t>bctech2080</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/kpi-dashboard-for-accountants/</t>
   </si>
   <si>
-    <t>bctech2081</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/return-on-advertising-spend-dashboard-marketing-automation-and-analytics-using-etl-and-dashboard/</t>
   </si>
   <si>
-    <t>bctech2082</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/ranking-customer-behaviours-for-business-strategy/</t>
   </si>
   <si>
-    <t>bctech2083</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/algorithmic-trading-for-multiple-commodities-markets-like-forex-metals-energy-etc/</t>
   </si>
   <si>
-    <t>bctech2084</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/trading-bot-for-forex/</t>
   </si>
   <si>
-    <t>bctech2085</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/python-model-for-the-analysis-of-sector-specific-stock-etfs-for-investment-purposes%ef%bf%bc/</t>
   </si>
   <si>
-    <t>bctech2086</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/medical-classification/</t>
   </si>
   <si>
-    <t>bctech2087</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/design-develop-bert-question-answering-model-explanations-with-visualization/</t>
   </si>
   <si>
-    <t>bctech2088</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/design-and-develop-solution-to-anomaly-detection-classification-problems/</t>
   </si>
   <si>
-    <t>bctech2089</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/an-etl-solution-for-currency-data-to-google-big-query/</t>
   </si>
   <si>
-    <t>bctech2090</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/etl-and-mlops-infrastructure-for-blockchain-analytics/</t>
   </si>
   <si>
-    <t>bctech2091</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/an-agent-based-model-of-a-virtual-power-plant-vpp/</t>
   </si>
   <si>
-    <t>bctech2092</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/transform-api-into-sdk-library-and-widget/</t>
   </si>
   <si>
-    <t>bctech2093</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/integration-of-a-product-to-a-cloud-based-crm-platform/</t>
   </si>
   <si>
-    <t>bctech2094</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/a-web-based-dashboard-for-the-filtered-data-retrieval-of-land-records/</t>
   </si>
   <si>
-    <t>bctech2095</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/integration-of-video-conferencing-data-to-the-existing-web-app/</t>
   </si>
   <si>
-    <t>bctech2096</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/design-develop-an-app-in-retool-which-shows-the-progress-of-the-added-video/</t>
   </si>
   <si>
-    <t>bctech2097</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/auvik-connectwise-integration-in-grafana/</t>
   </si>
   <si>
-    <t>bctech2098</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/data-integration-and-big-data-performance-using-elk-stack/</t>
   </si>
   <si>
-    <t>bctech2099</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/web-data-connector/</t>
   </si>
   <si>
-    <t>bctech2100</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/an-app-for-updating-the-email-id-of-the-user-and-stripe-refund-tool-using-retool/</t>
   </si>
   <si>
-    <t>bctech2101</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/an-ai-ml-based-web-application-that-detects-the-correctness-of-text-in-a-given-video/</t>
   </si>
   <si>
-    <t>bctech2102</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/website-tracking-and-insights-using-google-analytics-google-tag-manager/</t>
   </si>
   <si>
-    <t>bctech2103</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/dashboard-to-track-the-analytics-of-the-website-using-google-analytics-and-google-tag-manager/</t>
   </si>
   <si>
-    <t>bctech2104</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/power-bi-dashboard-on-operations-transactions-and-marketing-embedding-the-dashboard-to-web-app/</t>
   </si>
   <si>
-    <t>bctech2105</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/nft-data-automation-looksrare-and-etl-tool/</t>
   </si>
   <si>
-    <t>bctech2106</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/optimize-the-data-scraper-program-to-easily-accommodate-large-files-and-solve-oom-errors/</t>
   </si>
   <si>
-    <t>bctech2107</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/making-a-robust-way-to-sync-data-from-airtables-to-mongodb-using-python-etl-solution/</t>
   </si>
   <si>
-    <t>bctech2108</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/incident-duration-prediction-infrastructure-and-real-estate/</t>
   </si>
   <si>
-    <t>bctech2109</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/statistical-data-analysis-of-reinforced-concrete/</t>
   </si>
   <si>
-    <t>bctech2110</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/database-normalization-segmentation-with-google-data-studio-dashboard-insights/</t>
   </si>
   <si>
-    <t>bctech2111</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/power-bi-dashboard-to-drive-insights-from-complex-data-to-generate-business-insights/</t>
   </si>
   <si>
-    <t>bctech2112</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/real-time-dashboard-to-monitor-infrastructure-activity-and-machines/</t>
   </si>
   <si>
-    <t>bctech2113</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/electric-vehicles-ev-load-management-system-to-forecast-energy-demand/</t>
   </si>
   <si>
-    <t>bctech2114</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/power-bi-data-driven-map-dashboard/</t>
   </si>
   <si>
-    <t>bctech2115</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/google-local-service-ads-lsa-leads-dashboard/</t>
   </si>
   <si>
-    <t>bctech2116</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/aws-lex-voice-and-chatbot/</t>
   </si>
   <si>
-    <t>bctech2117</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/metabridges-api-decentraland-integration/</t>
   </si>
   <si>
-    <t>bctech2118</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/microsoft-azure-chatbot-with-luis-language-understanding/</t>
   </si>
   <si>
-    <t>bctech2119</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/impact-of-news-media-and-press-on-innovation-startups-and-investments/</t>
   </si>
   <si>
-    <t>bctech2120</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/aws-quicksight-reporting-dashboard/</t>
   </si>
   <si>
-    <t>bctech2121</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/google-data-studio-dashboard-for-marketing-ads-and-traction-data/</t>
   </si>
   <si>
-    <t>bctech2122</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/gangala-in-e-commerce-big-data-etl-elt-solution-and-data-warehouse/</t>
   </si>
   <si>
-    <t>bctech2123</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/big-data-solution-to-an-online-multivendor-marketplace-ecommerce-business/</t>
   </si>
   <si>
-    <t>bctech2124</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/creating-a-custom-report-and-dashboard-using-the-data-got-from-atera-api/</t>
   </si>
   <si>
-    <t>bctech2125</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/azure-data-lake-and-power-bi-dashboard/</t>
   </si>
   <si>
-    <t>bctech2126</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/google-data-studio-pipeline-with-gcp-mysql/</t>
   </si>
   <si>
-    <t>bctech2127</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/quickbooks-dashboard-to-find-patterns-in-finance-sales-and-forecasts/</t>
   </si>
   <si>
-    <t>bctech2128</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/marketing-sales-and-financial-data-business-dashboard-wink-report/</t>
   </si>
   <si>
-    <t>bctech2129</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/react-native-apps-in-the-development-portfolio/</t>
   </si>
   <si>
-    <t>bctech2130</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/a-leading-firm-website-seo-optimization/</t>
   </si>
   <si>
-    <t>bctech2131</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/a-leading-hospitality-firm-in-the-usa-website-seo-optimization/</t>
   </si>
   <si>
-    <t>bctech2132</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/a-leading-firm-in-the-usa-website-seo-optimization/</t>
   </si>
   <si>
-    <t>bctech2133</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/a-leading-musical-instrumental-website-seo-optimization/</t>
   </si>
   <si>
-    <t>bctech2134</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/a-leading-firm-in-the-usa-seo-and-website-optimization/</t>
   </si>
   <si>
-    <t>bctech2135</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/immigration-datawarehouse-ai-based-recommendations/</t>
   </si>
   <si>
-    <t>bctech2136</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/lipsync-automation-for-celebrities-and-influencers/</t>
   </si>
   <si>
-    <t>bctech2137</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/key-audit-matters-predictive-modeling/</t>
   </si>
   <si>
-    <t>bctech2138</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/splitting-of-songs-into-its-vocals-and-instrumental/</t>
   </si>
   <si>
-    <t>bctech2139</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/ai-and-ml-technologies-to-evaluate-learning-assessments/</t>
   </si>
   <si>
-    <t>bctech2140</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/datawarehouse-and-recommendations-engine-for-airbnb/</t>
   </si>
   <si>
-    <t>bctech2141</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/real-estate-data-warehouse/</t>
   </si>
   <si>
-    <t>bctech2142</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/traction-dashboards-of-marketing-campaigns-and-posts/</t>
   </si>
   <si>
-    <t>bctech2143</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/google-local-service-ads-lsa-data-warehouse/</t>
   </si>
   <si>
-    <t>bctech2144</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/google-local-service-ads-missed-calls-and-messages-automation-tool/</t>
   </si>
   <si>
-    <t>bctech2145</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/marketing-ads-leads-call-status-data-tool-to-bigquery/</t>
   </si>
   <si>
-    <t>bctech2146</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/marketing-analytics-to-automate-leads-call-status-and-reporting/</t>
   </si>
   <si>
-    <t>bctech2147</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/callrail-analytics-leads-report-alert/</t>
   </si>
   <si>
-    <t>bctech2148</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/marketing-automation-tool-to-notify-lead-details-to-clients-over-email-and-phone/</t>
   </si>
   <si>
-    <t>bctech2149</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/data-etl-local-service-ads-leads-to-bigquery/</t>
   </si>
   <si>
-    <t>bctech2150</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/marbles-stimulation-using-python/</t>
   </si>
   <si>
-    <t>bctech2151</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/stocktwits-data-structurization/</t>
   </si>
   <si>
-    <t>bctech2152</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/sentimental-analysis-on-shareholder-letter-of-companies/</t>
   </si>
   <si>
-    <t>bctech2153</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/population-and-community-survey-of-america/</t>
   </si>
   <si>
-    <t>bctech2154</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/google-lsa-api-data-automation-and-dashboarding/</t>
   </si>
   <si>
-    <t>bctech2155</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/healthcare-data-analysis/</t>
   </si>
   <si>
-    <t>bctech2156</t>
-  </si>
-  <si>
     <t>https://insights.blackcoffer.com/budget-sales-kpi-dashboard-using-power-bi/</t>
-  </si>
-  <si>
-    <t>bctech2157</t>
   </si>
   <si>
     <t>https://insights.blackcoffer.com/amazon-buy-bot-an-automation-ai-tool-to-auto-checkouts/</t>
@@ -909,125 +479,967 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border/>
+  <borders count="11">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF9CC2E5"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF9CC2E5"/>
       </top>
       <bottom style="thin">
         <color rgb="FF9CC2E5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF9CC2E5"/>
       </top>
       <bottom style="thin">
         <color rgb="FF9CC2E5"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1217,25 +1629,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B932"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.14"/>
-    <col customWidth="1" min="2" max="2" width="122.43"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col min="1" max="1" width="11.1363636363636" customWidth="1"/>
+    <col min="2" max="2" width="122.427272727273" customWidth="1"/>
+    <col min="3" max="26" width="8.70909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,1180 +1657,1180 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="4" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="6" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="3" t="s">
+    <row r="8" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+    <row r="10" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="11" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="3" t="s">
+    <row r="12" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="13" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="3" t="s">
+    <row r="14" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="15" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="3" t="s">
+    <row r="16" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="17" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="3" t="s">
+    <row r="18" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="19" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="3" t="s">
+    <row r="20" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="21" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="3" t="s">
+    <row r="22" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="23" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="3" t="s">
+    <row r="24" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="25" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="3" t="s">
+    <row r="26" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="27" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="3" t="s">
+    <row r="28" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="29" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="3" t="s">
+    <row r="30" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="31" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="3" t="s">
+    <row r="32" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="33" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="3" t="s">
+    <row r="34" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="35" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="3" t="s">
+    <row r="36" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="37" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="3" t="s">
+    <row r="38" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="39" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="3" t="s">
+    <row r="40" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="41" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="3" t="s">
+    <row r="42" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="43" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="3" t="s">
+    <row r="44" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="45" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="3" t="s">
+    <row r="46" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="47" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="3" t="s">
+    <row r="48" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="4" t="s">
+    </row>
+    <row r="49" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="3" t="s">
+    <row r="50" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="4" t="s">
+    </row>
+    <row r="51" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="3" t="s">
+    <row r="52" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="4" t="s">
+    </row>
+    <row r="53" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="3" t="s">
+    <row r="54" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="4" t="s">
+    </row>
+    <row r="55" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="3" t="s">
+    <row r="56" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="4" t="s">
+    </row>
+    <row r="57" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="3" t="s">
+    <row r="58" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="5" t="s">
+    </row>
+    <row r="59" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="3" t="s">
+    <row r="60" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="6" t="s">
+    </row>
+    <row r="61" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="3" t="s">
+    <row r="62" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="7" t="s">
+    </row>
+    <row r="63" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="3" t="s">
+    <row r="64" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="7" t="s">
+    </row>
+    <row r="65" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="3" t="s">
+    <row r="66" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="7" t="s">
+    </row>
+    <row r="67" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="3" t="s">
+    <row r="68" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="7" t="s">
+    </row>
+    <row r="69" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="3" t="s">
+    <row r="70" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="7" t="s">
+    </row>
+    <row r="71" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="3" t="s">
+    <row r="72" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="7" t="s">
+    </row>
+    <row r="73" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="3" t="s">
+    <row r="74" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="7" t="s">
+    </row>
+    <row r="75" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="3" t="s">
+    <row r="76" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="7" t="s">
+    </row>
+    <row r="77" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="3" t="s">
+    <row r="78" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="7" t="s">
+    </row>
+    <row r="79" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="3" t="s">
+    <row r="80" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="7" t="s">
+    </row>
+    <row r="81" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="3" t="s">
+    <row r="82" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="7" t="s">
+    </row>
+    <row r="83" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="3" t="s">
+    <row r="84" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="7" t="s">
+    </row>
+    <row r="85" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="3" t="s">
+    <row r="86" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="7" t="s">
+    </row>
+    <row r="87" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="3" t="s">
+    <row r="88" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="7" t="s">
+    </row>
+    <row r="89" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="3" t="s">
+    <row r="90" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="5" t="s">
+    </row>
+    <row r="91" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="3" t="s">
+    <row r="92" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="7" t="s">
+    </row>
+    <row r="93" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="3" t="s">
+    <row r="94" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="7" t="s">
+    </row>
+    <row r="95" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="3" t="s">
+    <row r="96" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="7" t="s">
+    </row>
+    <row r="97" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="3" t="s">
+    <row r="98" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="7" t="s">
+    </row>
+    <row r="99" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="3" t="s">
+    <row r="100" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="7" t="s">
+    </row>
+    <row r="101" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="3" t="s">
+    <row r="102" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="7" t="s">
+    </row>
+    <row r="103" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="3" t="s">
+    <row r="104" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="7" t="s">
+    </row>
+    <row r="105" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="3" t="s">
+    <row r="106" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="7" t="s">
+    </row>
+    <row r="107" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="3" t="s">
+    <row r="108" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="7" t="s">
+    </row>
+    <row r="109" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="3" t="s">
+    <row r="110" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="7" t="s">
+    </row>
+    <row r="111" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="3" t="s">
+    <row r="112" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="7" t="s">
+    </row>
+    <row r="113" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="3" t="s">
+    <row r="114" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="7" t="s">
+    </row>
+    <row r="115" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="3" t="s">
+    <row r="116" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="7" t="s">
+    </row>
+    <row r="117" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="3" t="s">
+    <row r="118" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="7" t="s">
+    </row>
+    <row r="119" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="3" t="s">
+    <row r="120" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="7" t="s">
+    </row>
+    <row r="121" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A121" s="3">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="3" t="s">
+    <row r="122" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="7" t="s">
+    </row>
+    <row r="123" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="3" t="s">
+    <row r="124" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="7" t="s">
+    </row>
+    <row r="125" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A125" s="3">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="3" t="s">
+    <row r="126" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="7" t="s">
+    </row>
+    <row r="127" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A127" s="3">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="3" t="s">
+    <row r="128" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="7" t="s">
+    </row>
+    <row r="129" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A129" s="3">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="3" t="s">
+    <row r="130" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="7" t="s">
+    </row>
+    <row r="131" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="3" t="s">
+    <row r="132" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="7" t="s">
+    </row>
+    <row r="133" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="3" t="s">
+    <row r="134" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="7" t="s">
+    </row>
+    <row r="135" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="3" t="s">
+    <row r="136" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="7" t="s">
+    </row>
+    <row r="137" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="3" t="s">
+    <row r="138" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="7" t="s">
+    </row>
+    <row r="139" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="3" t="s">
+    <row r="140" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="7" t="s">
+    </row>
+    <row r="141" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="3" t="s">
+    <row r="142" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="7" t="s">
+    </row>
+    <row r="143" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A143" s="3">
+        <v>142</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="3" t="s">
+    <row r="144" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="7" t="s">
+    </row>
+    <row r="145" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A145" s="3">
+        <v>144</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="3" t="s">
+    <row r="146" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A146" s="3">
+        <v>145</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="7" t="s">
+    </row>
+    <row r="147" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A147" s="3">
+        <v>146</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="3" t="s">
+    <row r="148" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A148" s="3">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1"/>
@@ -3205,157 +3619,156 @@
     <row r="932" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
-    <hyperlink r:id="rId9" ref="B10"/>
-    <hyperlink r:id="rId10" ref="B11"/>
-    <hyperlink r:id="rId11" ref="B12"/>
-    <hyperlink r:id="rId12" ref="B13"/>
-    <hyperlink r:id="rId13" ref="B14"/>
-    <hyperlink r:id="rId14" ref="B15"/>
-    <hyperlink r:id="rId15" ref="B16"/>
-    <hyperlink r:id="rId16" ref="B17"/>
-    <hyperlink r:id="rId17" ref="B18"/>
-    <hyperlink r:id="rId18" ref="B19"/>
-    <hyperlink r:id="rId19" ref="B20"/>
-    <hyperlink r:id="rId20" ref="B21"/>
-    <hyperlink r:id="rId21" ref="B22"/>
-    <hyperlink r:id="rId22" ref="B23"/>
-    <hyperlink r:id="rId23" ref="B24"/>
-    <hyperlink r:id="rId24" ref="B25"/>
-    <hyperlink r:id="rId25" ref="B26"/>
-    <hyperlink r:id="rId26" ref="B27"/>
-    <hyperlink r:id="rId27" ref="B28"/>
-    <hyperlink r:id="rId28" ref="B29"/>
-    <hyperlink r:id="rId29" ref="B30"/>
-    <hyperlink r:id="rId30" ref="B31"/>
-    <hyperlink r:id="rId31" ref="B32"/>
-    <hyperlink r:id="rId32" ref="B33"/>
-    <hyperlink r:id="rId33" ref="B34"/>
-    <hyperlink r:id="rId34" ref="B35"/>
-    <hyperlink r:id="rId35" ref="B36"/>
-    <hyperlink r:id="rId36" ref="B37"/>
-    <hyperlink r:id="rId37" ref="B38"/>
-    <hyperlink r:id="rId38" ref="B39"/>
-    <hyperlink r:id="rId39" ref="B40"/>
-    <hyperlink r:id="rId40" ref="B41"/>
-    <hyperlink r:id="rId41" ref="B42"/>
-    <hyperlink r:id="rId42" ref="B43"/>
-    <hyperlink r:id="rId43" ref="B44"/>
-    <hyperlink r:id="rId44" ref="B45"/>
-    <hyperlink r:id="rId45" ref="B46"/>
-    <hyperlink r:id="rId46" ref="B47"/>
-    <hyperlink r:id="rId47" ref="B48"/>
-    <hyperlink r:id="rId48" ref="B49"/>
-    <hyperlink r:id="rId49" ref="B50"/>
-    <hyperlink r:id="rId50" ref="B51"/>
-    <hyperlink r:id="rId51" ref="B52"/>
-    <hyperlink r:id="rId52" ref="B53"/>
-    <hyperlink r:id="rId53" ref="B54"/>
-    <hyperlink r:id="rId54" ref="B55"/>
-    <hyperlink r:id="rId55" ref="B56"/>
-    <hyperlink r:id="rId56" ref="B57"/>
-    <hyperlink r:id="rId57" ref="B58"/>
-    <hyperlink r:id="rId58" ref="B59"/>
-    <hyperlink r:id="rId59" ref="B60"/>
-    <hyperlink r:id="rId60" ref="B61"/>
-    <hyperlink r:id="rId61" ref="B62"/>
-    <hyperlink r:id="rId62" ref="B63"/>
-    <hyperlink r:id="rId63" ref="B64"/>
-    <hyperlink r:id="rId64" ref="B65"/>
-    <hyperlink r:id="rId65" ref="B66"/>
-    <hyperlink r:id="rId66" ref="B67"/>
-    <hyperlink r:id="rId67" ref="B68"/>
-    <hyperlink r:id="rId68" ref="B69"/>
-    <hyperlink r:id="rId69" ref="B70"/>
-    <hyperlink r:id="rId70" ref="B71"/>
-    <hyperlink r:id="rId71" ref="B72"/>
-    <hyperlink r:id="rId72" ref="B73"/>
-    <hyperlink r:id="rId73" ref="B74"/>
-    <hyperlink r:id="rId74" ref="B75"/>
-    <hyperlink r:id="rId75" ref="B76"/>
-    <hyperlink r:id="rId76" ref="B77"/>
-    <hyperlink r:id="rId77" ref="B78"/>
-    <hyperlink r:id="rId78" ref="B79"/>
-    <hyperlink r:id="rId79" ref="B80"/>
-    <hyperlink r:id="rId80" ref="B81"/>
-    <hyperlink r:id="rId81" ref="B82"/>
-    <hyperlink r:id="rId82" ref="B83"/>
-    <hyperlink r:id="rId83" ref="B84"/>
-    <hyperlink r:id="rId84" ref="B85"/>
-    <hyperlink r:id="rId85" ref="B86"/>
-    <hyperlink r:id="rId86" ref="B87"/>
-    <hyperlink r:id="rId87" ref="B88"/>
-    <hyperlink r:id="rId88" ref="B89"/>
-    <hyperlink r:id="rId89" ref="B90"/>
-    <hyperlink r:id="rId90" ref="B91"/>
-    <hyperlink r:id="rId91" ref="B92"/>
-    <hyperlink r:id="rId92" ref="B93"/>
-    <hyperlink r:id="rId93" ref="B94"/>
-    <hyperlink r:id="rId94" ref="B95"/>
-    <hyperlink r:id="rId95" ref="B96"/>
-    <hyperlink r:id="rId96" ref="B97"/>
-    <hyperlink r:id="rId97" ref="B98"/>
-    <hyperlink r:id="rId98" ref="B99"/>
-    <hyperlink r:id="rId99" ref="B100"/>
-    <hyperlink r:id="rId100" ref="B101"/>
-    <hyperlink r:id="rId101" ref="B102"/>
-    <hyperlink r:id="rId102" ref="B103"/>
-    <hyperlink r:id="rId103" ref="B104"/>
-    <hyperlink r:id="rId104" ref="B105"/>
-    <hyperlink r:id="rId105" ref="B106"/>
-    <hyperlink r:id="rId106" ref="B107"/>
-    <hyperlink r:id="rId107" ref="B108"/>
-    <hyperlink r:id="rId108" ref="B109"/>
-    <hyperlink r:id="rId109" ref="B110"/>
-    <hyperlink r:id="rId110" ref="B111"/>
-    <hyperlink r:id="rId111" ref="B112"/>
-    <hyperlink r:id="rId112" ref="B113"/>
-    <hyperlink r:id="rId113" ref="B114"/>
-    <hyperlink r:id="rId114" ref="B115"/>
-    <hyperlink r:id="rId115" ref="B116"/>
-    <hyperlink r:id="rId116" ref="B117"/>
-    <hyperlink r:id="rId117" ref="B118"/>
-    <hyperlink r:id="rId118" ref="B119"/>
-    <hyperlink r:id="rId119" ref="B120"/>
-    <hyperlink r:id="rId120" ref="B121"/>
-    <hyperlink r:id="rId121" ref="B122"/>
-    <hyperlink r:id="rId122" ref="B123"/>
-    <hyperlink r:id="rId123" ref="B124"/>
-    <hyperlink r:id="rId124" ref="B125"/>
-    <hyperlink r:id="rId125" ref="B126"/>
-    <hyperlink r:id="rId126" ref="B127"/>
-    <hyperlink r:id="rId127" ref="B128"/>
-    <hyperlink r:id="rId128" ref="B129"/>
-    <hyperlink r:id="rId129" ref="B130"/>
-    <hyperlink r:id="rId130" ref="B131"/>
-    <hyperlink r:id="rId131" ref="B132"/>
-    <hyperlink r:id="rId132" ref="B133"/>
-    <hyperlink r:id="rId133" ref="B134"/>
-    <hyperlink r:id="rId134" ref="B135"/>
-    <hyperlink r:id="rId135" ref="B136"/>
-    <hyperlink r:id="rId136" ref="B137"/>
-    <hyperlink r:id="rId137" ref="B138"/>
-    <hyperlink r:id="rId138" ref="B139"/>
-    <hyperlink r:id="rId139" ref="B140"/>
-    <hyperlink r:id="rId140" ref="B141"/>
-    <hyperlink r:id="rId141" ref="B142"/>
-    <hyperlink r:id="rId142" ref="B143"/>
-    <hyperlink r:id="rId143" ref="B144"/>
-    <hyperlink r:id="rId144" ref="B145"/>
-    <hyperlink r:id="rId145" ref="B146"/>
-    <hyperlink r:id="rId146" ref="B147"/>
-    <hyperlink r:id="rId147" ref="B148"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://insights.blackcoffer.com/ml-and-ai-based-insurance-premium-model-to-predict-premium-to-be-charged-by-the-insurance-company/"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://insights.blackcoffer.com/streamlined-integration-interactive-brokers-api-with-python-for-desktop-trading-application/"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://insights.blackcoffer.com/efficient-data-integration-and-user-friendly-interface-development-navigating-challenges-in-web-application-deployment/"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://insights.blackcoffer.com/effective-management-of-social-media-data-extraction-strategies-for-authentication-security-and-reliability/"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://insights.blackcoffer.com/streamlined-trading-operations-interface-for-metatrader-4-empowering-efficient-management-and-monitoring/"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://insights.blackcoffer.com/efficient-aws-infrastructure-setup-and-management-addressing-security-scalability-and-compliance/"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://insights.blackcoffer.com/streamlined-equity-waterfall-calculation-and-deal-management-system/"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://insights.blackcoffer.com/automated-orthopedic-case-report-generation-harnessing-web-scraping-and-ai-integration/"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://insights.blackcoffer.com/streamlining-time-calculation-in-warehouse-management-leveraging-shiphero-api-and-google-bigquery-integration/"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://insights.blackcoffer.com/efficient-database-design-and-management-streamlining-access-and-integration-for-partner-entity-management/"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://insights.blackcoffer.com/automated-campaign-management-system-a-comprehensive-solution-with-linkedin-and-email-integration/"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://insights.blackcoffer.com/ai-driven-data-analysis-ai-tool-using-langchain-for-a-leading-real-estate-and-financing-firm-worldwide/"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://insights.blackcoffer.com/grafana-dashboard-to-visualize-and-analyze-sensors-data/"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://insights.blackcoffer.com/mvp-for-a-software-that-analyses-content-from-audio-pharma-based/"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://insights.blackcoffer.com/data-engineering-and-management-tool-airbyte-with-custom-data-connectors-to-manage-crm-database/"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://insights.blackcoffer.com/text-summarizing-tool-to-scrape-and-summarize-pubmed-medical-papers/"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://insights.blackcoffer.com/7up7down-10updown-snakes-and-ladder-games-built-using-oops/"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://insights.blackcoffer.com/data-studio-dashboard-with-a-data-pipeline-tool-synced-with-podio-using-custom-webhooks-and-google-cloud-function/"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://insights.blackcoffer.com/end-to-end-tool-to-optimize-routing-and-planning-of-field-engineers-using-googles-cvrp-tw-algorithm/"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://insights.blackcoffer.com/end-to-end-tool-to-predict-biofuel-prices-using-ieso-data/"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://insights.blackcoffer.com/etl-discovery-tool-using-llma-langchain-openai/"/>
+    <hyperlink ref="B23" r:id="rId22" display="https://insights.blackcoffer.com/gpt-ocr-api/"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://insights.blackcoffer.com/dockerize-the-aws-lambda-for-serverless-architecture/"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://insights.blackcoffer.com/design-and-develop-a-product-recommendation-engine-based-on-the-features-of-products/"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://insights.blackcoffer.com/database-discovery-tool-using-openai/"/>
+    <hyperlink ref="B27" r:id="rId26" display="https://insights.blackcoffer.com/automate-the-data-management-process/"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://insights.blackcoffer.com/realtime-kibana-dashboard-for-a-financial-tech-firm/"/>
+    <hyperlink ref="B29" r:id="rId28" display="https://insights.blackcoffer.com/data-management-etl-and-data-automation/"/>
+    <hyperlink ref="B30" r:id="rId29" display="https://insights.blackcoffer.com/data-management-egeas/"/>
+    <hyperlink ref="B31" r:id="rId30" display="https://insights.blackcoffer.com/design-and-develop-powershell-script/"/>
+    <hyperlink ref="B32" r:id="rId31" display="https://insights.blackcoffer.com/design-and-develop-jenkins-shared-library/"/>
+    <hyperlink ref="B33" r:id="rId32" display="https://insights.blackcoffer.com/design-and-develop-retool-app-for-wholecell-io-and-asana-data-using-their-apis/"/>
+    <hyperlink ref="B34" r:id="rId33" display="https://insights.blackcoffer.com/design-and-develop-a-retool-app-that-will-show-stock-and-crypto-related-information-using-iex-api/"/>
+    <hyperlink ref="B35" r:id="rId34" display="https://insights.blackcoffer.com/crm-monday-com-make-com-to-data-warehouse-to-klipfolio-dashboard/"/>
+    <hyperlink ref="B36" r:id="rId35" display="https://insights.blackcoffer.com/ner-task-using-bert-with-data-in-xml-format/"/>
+    <hyperlink ref="B37" r:id="rId36" display="https://insights.blackcoffer.com/qualtrics-api-integration-using-python/"/>
+    <hyperlink ref="B38" r:id="rId37" display="https://insights.blackcoffer.com/design-and-develop-mlops-framework-for-data-centric-ai/"/>
+    <hyperlink ref="B39" r:id="rId38" display="https://insights.blackcoffer.com/nlp-based-approach-for-data-transformation/"/>
+    <hyperlink ref="B40" r:id="rId39" display="https://insights.blackcoffer.com/an-etl-tool-to-pull-data-from-shiphero-to-google-bigquery-data-warehouse/"/>
+    <hyperlink ref="B41" r:id="rId40" display="https://insights.blackcoffer.com/plaid-financial-analytics-a-data-driven-dashboard-to-generate-insights/"/>
+    <hyperlink ref="B42" r:id="rId41" display="https://insights.blackcoffer.com/recommendation-engine-for-insurance-sector-to-expand-business-in-the-rural-area/"/>
+    <hyperlink ref="B43" r:id="rId42" display="https://insights.blackcoffer.com/data-from-crm-via-zapier-to-google-sheets-dynamic-to-powerbi/"/>
+    <hyperlink ref="B44" r:id="rId43" display="https://insights.blackcoffer.com/data-warehouse-to-google-data-studio-looker-dashboard/"/>
+    <hyperlink ref="B45" r:id="rId44" display="https://insights.blackcoffer.com/crm-monday-com-via-zapier-to-power-bi-dashboard/"/>
+    <hyperlink ref="B46" r:id="rId45" display="https://insights.blackcoffer.com/monday-com-to-kpi-dashboard-to-manage-view-and-generate-insights-from-the-crm-data/"/>
+    <hyperlink ref="B47" r:id="rId46" display="https://insights.blackcoffer.com/data-management-for-a-political-saas-application/"/>
+    <hyperlink ref="B48" r:id="rId47" display="https://insights.blackcoffer.com/google-lsa-ads-google-local-service-ads-etl-tools-and-dashboards/"/>
+    <hyperlink ref="B49" r:id="rId48" display="https://insights.blackcoffer.com/ad-networks-marketing-campaign-data-dashboard-in-looker-google-data-studio/"/>
+    <hyperlink ref="B50" r:id="rId49" display="https://insights.blackcoffer.com/analytical-solution-for-a-tech-firm/"/>
+    <hyperlink ref="B51" r:id="rId50" display="https://insights.blackcoffer.com/ai-solution-for-a-technology-information-and-internet-firm/"/>
+    <hyperlink ref="B52" r:id="rId51" display="https://insights.blackcoffer.com/ai-and-nlp-based-solutions-to-automate-data-discovery-for-venture-capital-and-private-equity-principals/"/>
+    <hyperlink ref="B53" r:id="rId52" display="https://insights.blackcoffer.com/an-etl-solution-for-an-internet-publishing-firm/"/>
+    <hyperlink ref="B54" r:id="rId53" display="https://insights.blackcoffer.com/ai-based-algorithmic-trading-bot-for-forex/"/>
+    <hyperlink ref="B55" r:id="rId54" display="https://insights.blackcoffer.com/equity-waterfalls-model-based-saas-application-for-real-estate-sector/"/>
+    <hyperlink ref="B56" r:id="rId55" display="https://insights.blackcoffer.com/ai-solutions-for-foreign-exchange-an-automated-algo-trading-tool/"/>
+    <hyperlink ref="B57" r:id="rId56" display="https://insights.blackcoffer.com/ai-agent-development-and-deployment-in-jina-ai/"/>
+    <hyperlink ref="B58" r:id="rId57" display="https://insights.blackcoffer.com/golden-record-a-knowledge-graph-database-approach-to-unfold-discovery-using-neo4j/"/>
+    <hyperlink ref="B59" r:id="rId58" display="https://insights.blackcoffer.com/advanced-ai-for-trading-automation/"/>
+    <hyperlink ref="B60" r:id="rId59" display="https://insights.blackcoffer.com/create-a-knowledge-graph-to-provide-real-time-analytics-recommendations-and-a-single-source-of-truth/"/>
+    <hyperlink ref="B61" r:id="rId60" display="https://insights.blackcoffer.com/advanced-ai-for-thermal-person-detection/"/>
+    <hyperlink ref="B62" r:id="rId61" display="https://insights.blackcoffer.com/advanced-ai-for-road-cam-threat-detection/"/>
+    <hyperlink ref="B63" r:id="rId62" display="https://insights.blackcoffer.com/advanced-ai-for-pedestrian-crossing-safety/"/>
+    <hyperlink ref="B64" r:id="rId63" display="https://insights.blackcoffer.com/handgun-detection-using-yolo/"/>
+    <hyperlink ref="B65" r:id="rId64" display="https://insights.blackcoffer.com/using-graph-technology-to-create-single-customer-view/"/>
+    <hyperlink ref="B66" r:id="rId65" display="https://insights.blackcoffer.com/car-detection-in-satellite-images/"/>
+    <hyperlink ref="B67" r:id="rId66" display="https://insights.blackcoffer.com/building-a-physics-informed-neural-network-for-circuit-evaluation/"/>
+    <hyperlink ref="B68" r:id="rId67" display="https://insights.blackcoffer.com/connecting-mongodb-database-to-power-bi-dashboard-dashboard-automation/"/>
+    <hyperlink ref="B69" r:id="rId68" display="https://insights.blackcoffer.com/data-transformation/"/>
+    <hyperlink ref="B70" r:id="rId69" display="https://insights.blackcoffer.com/e-commerce-store-analysis-purchase-behavior-ad-spend-conversion-traffic-etc/"/>
+    <hyperlink ref="B71" r:id="rId70" display="https://insights.blackcoffer.com/kpi-dashboard-for-accountants/"/>
+    <hyperlink ref="B72" r:id="rId71" display="https://insights.blackcoffer.com/return-on-advertising-spend-dashboard-marketing-automation-and-analytics-using-etl-and-dashboard/"/>
+    <hyperlink ref="B73" r:id="rId72" display="https://insights.blackcoffer.com/ranking-customer-behaviours-for-business-strategy/"/>
+    <hyperlink ref="B74" r:id="rId73" display="https://insights.blackcoffer.com/algorithmic-trading-for-multiple-commodities-markets-like-forex-metals-energy-etc/"/>
+    <hyperlink ref="B75" r:id="rId74" display="https://insights.blackcoffer.com/trading-bot-for-forex/"/>
+    <hyperlink ref="B76" r:id="rId75" display="https://insights.blackcoffer.com/python-model-for-the-analysis-of-sector-specific-stock-etfs-for-investment-purposes%ef%bf%bc/"/>
+    <hyperlink ref="B77" r:id="rId76" display="https://insights.blackcoffer.com/medical-classification/"/>
+    <hyperlink ref="B78" r:id="rId77" display="https://insights.blackcoffer.com/design-develop-bert-question-answering-model-explanations-with-visualization/"/>
+    <hyperlink ref="B79" r:id="rId78" display="https://insights.blackcoffer.com/design-and-develop-solution-to-anomaly-detection-classification-problems/"/>
+    <hyperlink ref="B80" r:id="rId79" display="https://insights.blackcoffer.com/an-etl-solution-for-currency-data-to-google-big-query/"/>
+    <hyperlink ref="B81" r:id="rId80" display="https://insights.blackcoffer.com/etl-and-mlops-infrastructure-for-blockchain-analytics/"/>
+    <hyperlink ref="B82" r:id="rId81" display="https://insights.blackcoffer.com/an-agent-based-model-of-a-virtual-power-plant-vpp/"/>
+    <hyperlink ref="B83" r:id="rId82" display="https://insights.blackcoffer.com/transform-api-into-sdk-library-and-widget/"/>
+    <hyperlink ref="B84" r:id="rId83" display="https://insights.blackcoffer.com/integration-of-a-product-to-a-cloud-based-crm-platform/"/>
+    <hyperlink ref="B85" r:id="rId84" display="https://insights.blackcoffer.com/a-web-based-dashboard-for-the-filtered-data-retrieval-of-land-records/"/>
+    <hyperlink ref="B86" r:id="rId85" display="https://insights.blackcoffer.com/integration-of-video-conferencing-data-to-the-existing-web-app/"/>
+    <hyperlink ref="B87" r:id="rId86" display="https://insights.blackcoffer.com/design-develop-an-app-in-retool-which-shows-the-progress-of-the-added-video/"/>
+    <hyperlink ref="B88" r:id="rId87" display="https://insights.blackcoffer.com/auvik-connectwise-integration-in-grafana/"/>
+    <hyperlink ref="B89" r:id="rId88" display="https://insights.blackcoffer.com/data-integration-and-big-data-performance-using-elk-stack/"/>
+    <hyperlink ref="B90" r:id="rId89" display="https://insights.blackcoffer.com/web-data-connector/"/>
+    <hyperlink ref="B91" r:id="rId90" display="https://insights.blackcoffer.com/an-app-for-updating-the-email-id-of-the-user-and-stripe-refund-tool-using-retool/"/>
+    <hyperlink ref="B92" r:id="rId91" display="https://insights.blackcoffer.com/an-ai-ml-based-web-application-that-detects-the-correctness-of-text-in-a-given-video/"/>
+    <hyperlink ref="B93" r:id="rId92" display="https://insights.blackcoffer.com/website-tracking-and-insights-using-google-analytics-google-tag-manager/"/>
+    <hyperlink ref="B94" r:id="rId93" display="https://insights.blackcoffer.com/dashboard-to-track-the-analytics-of-the-website-using-google-analytics-and-google-tag-manager/"/>
+    <hyperlink ref="B95" r:id="rId94" display="https://insights.blackcoffer.com/power-bi-dashboard-on-operations-transactions-and-marketing-embedding-the-dashboard-to-web-app/"/>
+    <hyperlink ref="B96" r:id="rId95" display="https://insights.blackcoffer.com/nft-data-automation-looksrare-and-etl-tool/"/>
+    <hyperlink ref="B97" r:id="rId96" display="https://insights.blackcoffer.com/optimize-the-data-scraper-program-to-easily-accommodate-large-files-and-solve-oom-errors/"/>
+    <hyperlink ref="B98" r:id="rId97" display="https://insights.blackcoffer.com/making-a-robust-way-to-sync-data-from-airtables-to-mongodb-using-python-etl-solution/"/>
+    <hyperlink ref="B99" r:id="rId98" display="https://insights.blackcoffer.com/incident-duration-prediction-infrastructure-and-real-estate/"/>
+    <hyperlink ref="B100" r:id="rId99" display="https://insights.blackcoffer.com/statistical-data-analysis-of-reinforced-concrete/"/>
+    <hyperlink ref="B101" r:id="rId100" display="https://insights.blackcoffer.com/database-normalization-segmentation-with-google-data-studio-dashboard-insights/"/>
+    <hyperlink ref="B102" r:id="rId101" display="https://insights.blackcoffer.com/power-bi-dashboard-to-drive-insights-from-complex-data-to-generate-business-insights/"/>
+    <hyperlink ref="B103" r:id="rId102" display="https://insights.blackcoffer.com/real-time-dashboard-to-monitor-infrastructure-activity-and-machines/"/>
+    <hyperlink ref="B104" r:id="rId103" display="https://insights.blackcoffer.com/electric-vehicles-ev-load-management-system-to-forecast-energy-demand/"/>
+    <hyperlink ref="B105" r:id="rId104" display="https://insights.blackcoffer.com/power-bi-data-driven-map-dashboard/"/>
+    <hyperlink ref="B106" r:id="rId105" display="https://insights.blackcoffer.com/google-local-service-ads-lsa-leads-dashboard/"/>
+    <hyperlink ref="B107" r:id="rId106" display="https://insights.blackcoffer.com/aws-lex-voice-and-chatbot/"/>
+    <hyperlink ref="B108" r:id="rId107" display="https://insights.blackcoffer.com/metabridges-api-decentraland-integration/"/>
+    <hyperlink ref="B109" r:id="rId108" display="https://insights.blackcoffer.com/microsoft-azure-chatbot-with-luis-language-understanding/"/>
+    <hyperlink ref="B110" r:id="rId109" display="https://insights.blackcoffer.com/impact-of-news-media-and-press-on-innovation-startups-and-investments/"/>
+    <hyperlink ref="B111" r:id="rId110" display="https://insights.blackcoffer.com/aws-quicksight-reporting-dashboard/"/>
+    <hyperlink ref="B112" r:id="rId111" display="https://insights.blackcoffer.com/google-data-studio-dashboard-for-marketing-ads-and-traction-data/"/>
+    <hyperlink ref="B113" r:id="rId112" display="https://insights.blackcoffer.com/gangala-in-e-commerce-big-data-etl-elt-solution-and-data-warehouse/"/>
+    <hyperlink ref="B114" r:id="rId113" display="https://insights.blackcoffer.com/big-data-solution-to-an-online-multivendor-marketplace-ecommerce-business/"/>
+    <hyperlink ref="B115" r:id="rId114" display="https://insights.blackcoffer.com/creating-a-custom-report-and-dashboard-using-the-data-got-from-atera-api/"/>
+    <hyperlink ref="B116" r:id="rId115" display="https://insights.blackcoffer.com/azure-data-lake-and-power-bi-dashboard/"/>
+    <hyperlink ref="B117" r:id="rId116" display="https://insights.blackcoffer.com/google-data-studio-pipeline-with-gcp-mysql/"/>
+    <hyperlink ref="B118" r:id="rId117" display="https://insights.blackcoffer.com/quickbooks-dashboard-to-find-patterns-in-finance-sales-and-forecasts/"/>
+    <hyperlink ref="B119" r:id="rId118" display="https://insights.blackcoffer.com/marketing-sales-and-financial-data-business-dashboard-wink-report/"/>
+    <hyperlink ref="B120" r:id="rId119" display="https://insights.blackcoffer.com/react-native-apps-in-the-development-portfolio/"/>
+    <hyperlink ref="B121" r:id="rId120" display="https://insights.blackcoffer.com/a-leading-firm-website-seo-optimization/"/>
+    <hyperlink ref="B122" r:id="rId121" display="https://insights.blackcoffer.com/a-leading-hospitality-firm-in-the-usa-website-seo-optimization/"/>
+    <hyperlink ref="B123" r:id="rId122" display="https://insights.blackcoffer.com/a-leading-firm-in-the-usa-website-seo-optimization/"/>
+    <hyperlink ref="B124" r:id="rId123" display="https://insights.blackcoffer.com/a-leading-musical-instrumental-website-seo-optimization/"/>
+    <hyperlink ref="B125" r:id="rId124" display="https://insights.blackcoffer.com/a-leading-firm-in-the-usa-seo-and-website-optimization/"/>
+    <hyperlink ref="B126" r:id="rId125" display="https://insights.blackcoffer.com/immigration-datawarehouse-ai-based-recommendations/"/>
+    <hyperlink ref="B127" r:id="rId126" display="https://insights.blackcoffer.com/lipsync-automation-for-celebrities-and-influencers/"/>
+    <hyperlink ref="B128" r:id="rId127" display="https://insights.blackcoffer.com/key-audit-matters-predictive-modeling/"/>
+    <hyperlink ref="B129" r:id="rId128" display="https://insights.blackcoffer.com/splitting-of-songs-into-its-vocals-and-instrumental/"/>
+    <hyperlink ref="B130" r:id="rId129" display="https://insights.blackcoffer.com/ai-and-ml-technologies-to-evaluate-learning-assessments/"/>
+    <hyperlink ref="B131" r:id="rId130" display="https://insights.blackcoffer.com/datawarehouse-and-recommendations-engine-for-airbnb/"/>
+    <hyperlink ref="B132" r:id="rId131" display="https://insights.blackcoffer.com/real-estate-data-warehouse/"/>
+    <hyperlink ref="B133" r:id="rId132" display="https://insights.blackcoffer.com/traction-dashboards-of-marketing-campaigns-and-posts/"/>
+    <hyperlink ref="B134" r:id="rId133" display="https://insights.blackcoffer.com/google-local-service-ads-lsa-data-warehouse/"/>
+    <hyperlink ref="B135" r:id="rId134" display="https://insights.blackcoffer.com/google-local-service-ads-missed-calls-and-messages-automation-tool/"/>
+    <hyperlink ref="B136" r:id="rId135" display="https://insights.blackcoffer.com/marketing-ads-leads-call-status-data-tool-to-bigquery/"/>
+    <hyperlink ref="B137" r:id="rId136" display="https://insights.blackcoffer.com/marketing-analytics-to-automate-leads-call-status-and-reporting/"/>
+    <hyperlink ref="B138" r:id="rId137" display="https://insights.blackcoffer.com/callrail-analytics-leads-report-alert/"/>
+    <hyperlink ref="B139" r:id="rId138" display="https://insights.blackcoffer.com/marketing-automation-tool-to-notify-lead-details-to-clients-over-email-and-phone/"/>
+    <hyperlink ref="B140" r:id="rId139" display="https://insights.blackcoffer.com/data-etl-local-service-ads-leads-to-bigquery/"/>
+    <hyperlink ref="B141" r:id="rId140" display="https://insights.blackcoffer.com/marbles-stimulation-using-python/"/>
+    <hyperlink ref="B142" r:id="rId141" display="https://insights.blackcoffer.com/stocktwits-data-structurization/"/>
+    <hyperlink ref="B143" r:id="rId142" display="https://insights.blackcoffer.com/sentimental-analysis-on-shareholder-letter-of-companies/"/>
+    <hyperlink ref="B144" r:id="rId143" display="https://insights.blackcoffer.com/population-and-community-survey-of-america/"/>
+    <hyperlink ref="B145" r:id="rId144" display="https://insights.blackcoffer.com/google-lsa-api-data-automation-and-dashboarding/"/>
+    <hyperlink ref="B146" r:id="rId145" display="https://insights.blackcoffer.com/healthcare-data-analysis/"/>
+    <hyperlink ref="B147" r:id="rId146" display="https://insights.blackcoffer.com/budget-sales-kpi-dashboard-using-power-bi/"/>
+    <hyperlink ref="B148" r:id="rId147" display="https://insights.blackcoffer.com/amazon-buy-bot-an-automation-ai-tool-to-auto-checkouts/"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId148"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>